--- a/Tables/MetadataDictionary_v1.xlsx
+++ b/Tables/MetadataDictionary_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/PNAMPTeam/Shared Documents/General/Projects/Habitat Data Sharing/Habitat Metrics Integration_INTERNAL/Data Release Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CDC1EB-21BE-4407-86FB-93A5B49F9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05743D39-540E-404C-9D01-60BC96B6A210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" activeTab="1" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetadataDict!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EnumDict!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -322,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="339">
   <si>
     <t>tblname</t>
   </si>
@@ -396,19 +397,22 @@
     <t>y</t>
   </si>
   <si>
-    <t>variableID</t>
+    <t xml:space="preserve">measurementID </t>
   </si>
   <si>
     <t>Global unique identifier assigned to the variable/measurementType.</t>
   </si>
   <si>
-    <t>measurementTerm</t>
+    <t xml:space="preserve">updated term ras 12/28 </t>
+  </si>
+  <si>
+    <t>measurementType</t>
   </si>
   <si>
     <t>The variable or name of the measurement.</t>
   </si>
   <si>
-    <t>dataValue</t>
+    <t>measurementValue</t>
   </si>
   <si>
     <t>The value of the measurementTerm attribute measured in units given in the measurementTerm definitions.</t>
@@ -423,7 +427,7 @@
     <t>The acronym for the monitoring program from which this measurement originated.</t>
   </si>
   <si>
-    <t>methodID</t>
+    <t>measurementMethod</t>
   </si>
   <si>
     <t>A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
@@ -639,9 +643,6 @@
     <t>Comma Separated Value (CSV) file containing the controlled vocabulary (with definitions) used to integrate the dataset for the Stream Habitat Metric Integration project. This table corresponds to the MetricCV table in the database (.accdb) file.</t>
   </si>
   <si>
-    <t>measurementType</t>
-  </si>
-  <si>
     <t>The category of measurement type to which the measurement belongs. This is the same category as that in the 'resultTypeCV' attribute in the MeasurementorFact table.</t>
   </si>
   <si>
@@ -813,6 +814,9 @@
     <t>Stream survey measurements on stream banks, including bank angle and percent stability.</t>
   </si>
   <si>
+    <t>measurementID</t>
+  </si>
+  <si>
     <t>A unique numeric identifier assigned to the measurementTerm: Beaver</t>
   </si>
   <si>
@@ -939,6 +943,9 @@
     <t>Beaver sign(s) present from the provider dataset (unit: none).</t>
   </si>
   <si>
+    <t>update attrlab 12/28</t>
+  </si>
+  <si>
     <t>PctDry</t>
   </si>
   <si>
@@ -1122,6 +1129,9 @@
     <t>National Rivers and Streams Assessment</t>
   </si>
   <si>
+    <t>delete 12/28 ras</t>
+  </si>
+  <si>
     <t>AREMP</t>
   </si>
   <si>
@@ -1140,6 +1150,9 @@
     <t>PacFish/InFish Biological Opinion Monitoring Program</t>
   </si>
   <si>
+    <t xml:space="preserve">delete raas 12/28 </t>
+  </si>
+  <si>
     <t>WADEABLE</t>
   </si>
   <si>
@@ -1173,34 +1186,61 @@
     <t>The dataset ID assigned to PIBO-sourced data.</t>
   </si>
   <si>
-    <t>datasetOriginizationCode</t>
-  </si>
-  <si>
-    <t>EPA NRSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment Protection Agency National Rivers and Streams Assessment </t>
-  </si>
-  <si>
-    <t>USFS AREMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Forest Service Aquatic and Riparian Monitoring Program </t>
-  </si>
-  <si>
-    <t>BLM AIM</t>
-  </si>
-  <si>
-    <t>Bureau of Land Management Assessment, Inventory and Monitoring</t>
-  </si>
-  <si>
-    <t>USFS PIBO</t>
-  </si>
-  <si>
-    <t>United States Forest Service PacFish/InFish Biological Opinion Monitoring Program</t>
+    <t>delete ras 12/28</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPA </t>
+  </si>
+  <si>
+    <t>Environment Protection Agency</t>
+  </si>
+  <si>
+    <t>updated bs 12/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Forest Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bureau of Land Management </t>
   </si>
   <si>
     <t>datasetOriginization</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agancy</t>
+  </si>
+  <si>
+    <t>United States Forest Service</t>
+  </si>
+  <si>
+    <t>Bureau of Land Management</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>National Rivers and Streams Assessmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added bs 12/28 </t>
+  </si>
+  <si>
+    <t>Aquatic and Riparian Effectiveness Monitoring Plan</t>
+  </si>
+  <si>
+    <t>Asssessment, Inventory, and Monitoring</t>
+  </si>
+  <si>
+    <t>projectCode</t>
   </si>
   <si>
     <t>A unique numeric identifier assigned to the term: Beaver.</t>
@@ -1306,7 +1346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1387,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1369,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1378,6 +1424,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,35 +1740,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="218.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1752,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57.95">
+    <row r="2" spans="1:12" ht="45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1763,14 +1812,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -1780,14 +1829,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -1797,14 +1846,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
@@ -1814,14 +1863,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
@@ -1830,16 +1879,19 @@
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
         <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1847,16 +1899,19 @@
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
         <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1868,18 +1923,21 @@
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1891,78 +1949,81 @@
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
         <v>34</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
         <v>38</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.95">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.95" hidden="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1971,15 +2032,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1988,15 +2049,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2005,41 +2066,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -2048,18 +2109,18 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -2071,18 +2132,18 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>2000</v>
@@ -2091,32 +2152,32 @@
         <v>2020</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57.95">
+    <row r="20" spans="1:11" ht="57.95" hidden="1">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -2125,15 +2186,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2142,15 +2203,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -2159,61 +2220,61 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>25.848932980000001</v>
@@ -2222,21 +2283,21 @@
         <v>71.268600000000006</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27">
         <v>-163.74230800000001</v>
@@ -2245,21 +2306,21 @@
         <v>-67.498393539999995</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -2268,46 +2329,46 @@
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="72.599999999999994">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="72.599999999999994" hidden="1">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2316,15 +2377,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -2333,124 +2394,124 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2459,49 +2520,49 @@
         <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="72.599999999999994">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="72.599999999999994" hidden="1">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
@@ -2513,9 +2574,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
         <v>107</v>
@@ -2530,9 +2591,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
         <v>109</v>
@@ -2547,9 +2608,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -2561,12 +2622,12 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
         <v>113</v>
@@ -2578,12 +2639,12 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>115</v>
@@ -2595,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>23</v>
@@ -2604,9 +2665,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
         <v>118</v>
@@ -2621,9 +2682,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
@@ -2644,9 +2705,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
         <v>123</v>
@@ -2667,9 +2728,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>126</v>
@@ -2690,7 +2751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="116.1">
+    <row r="51" spans="1:11" ht="116.1" hidden="1">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2701,7 +2762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -2718,7 +2779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -2732,15 +2793,15 @@
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>133</v>
@@ -2752,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -2772,10 +2833,10 @@
         <v>23</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -2789,16 +2850,16 @@
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -2812,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>23</v>
@@ -2821,7 +2882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -2835,7 +2896,7 @@
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>23</v>
@@ -2845,7 +2906,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L58" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}"/>
+  <autoFilter ref="A1:L58" xr:uid="{41E6029B-A891-4391-9A91-8B6BC1C75C07}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MeasurementorFact"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2854,20 +2921,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3000,16 +3069,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3020,16 +3089,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4">
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -3040,16 +3109,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4">
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -3060,16 +3129,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4">
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -3080,16 +3149,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4">
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -3100,16 +3169,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4">
         <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3120,16 +3189,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4">
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3140,16 +3209,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4">
         <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3160,16 +3229,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4">
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -3180,16 +3249,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C17" s="4">
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3200,16 +3269,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4">
         <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3220,16 +3289,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4">
         <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3240,16 +3309,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4">
         <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3260,16 +3329,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4">
         <v>47</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3280,16 +3349,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4">
         <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -3300,16 +3369,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4">
         <v>49</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
@@ -3320,16 +3389,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4">
         <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -3340,16 +3409,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4">
         <v>51</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -3360,16 +3429,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4">
         <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -3380,16 +3449,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C27" s="4">
         <v>53</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -3400,16 +3469,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C28" s="4">
         <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -3420,16 +3489,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -3440,16 +3509,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4">
         <v>56</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -3460,16 +3529,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4">
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -3480,2678 +3549,2825 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4">
         <v>58</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4">
         <v>59</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4">
         <v>60</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4">
         <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4">
         <v>62</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4">
         <v>63</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D45" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D59" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" t="s">
-        <v>249</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D63" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" t="s">
-        <v>257</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" t="s">
-        <v>259</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" t="s">
-        <v>263</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" t="s">
+        <v>272</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D72" t="s">
         <v>267</v>
       </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D73" t="s">
         <v>270</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D74" t="s">
+        <v>272</v>
+      </c>
+      <c r="G74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>286</v>
+      </c>
+      <c r="F85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D86" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="F86" t="s">
+        <v>284</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="D87" t="s">
         <v>270</v>
       </c>
-      <c r="D75" t="s">
+      <c r="F87" t="s">
+        <v>284</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="D88" t="s">
         <v>272</v>
       </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="F88" t="s">
+        <v>284</v>
+      </c>
+      <c r="G88" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D89" t="s">
         <v>274</v>
       </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" t="s">
-        <v>278</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" t="s">
-        <v>279</v>
-      </c>
-      <c r="F83" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" t="s">
-        <v>281</v>
-      </c>
-      <c r="F84" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F89" t="s">
+        <v>284</v>
+      </c>
+      <c r="G89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
         <v>282</v>
       </c>
-      <c r="F85" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" t="s">
-        <v>265</v>
-      </c>
-      <c r="F86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="F90" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>285</v>
+      </c>
+      <c r="F92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="F93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" t="s">
+        <v>284</v>
+      </c>
+      <c r="G94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" t="s">
+        <v>293</v>
+      </c>
+      <c r="F95" t="s">
+        <v>284</v>
+      </c>
+      <c r="G95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" t="s">
+        <v>295</v>
+      </c>
+      <c r="F96" t="s">
+        <v>284</v>
+      </c>
+      <c r="G96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" t="s">
+        <v>284</v>
+      </c>
+      <c r="G97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F98" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15">
+      <c r="A99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15">
+      <c r="A100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15">
+      <c r="A101" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101" t="s">
+        <v>284</v>
+      </c>
+      <c r="G101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15">
+      <c r="A102" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F102" t="s">
+        <v>284</v>
+      </c>
+      <c r="G102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15">
+      <c r="A103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F103" t="s">
+        <v>284</v>
+      </c>
+      <c r="G103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15">
+      <c r="A104" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F104" t="s">
+        <v>284</v>
+      </c>
+      <c r="G104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D105" t="s">
         <v>267</v>
       </c>
-      <c r="F87" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="F105" t="s">
+        <v>284</v>
+      </c>
+      <c r="G105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15">
+      <c r="A106" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106" t="s">
+        <v>284</v>
+      </c>
+      <c r="G106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15">
+      <c r="A107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F88" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D107" t="s">
         <v>270</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F107" t="s">
+        <v>284</v>
+      </c>
+      <c r="G107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15">
+      <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F89" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" t="s">
-        <v>278</v>
-      </c>
-      <c r="F90" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>75</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" t="s">
-        <v>279</v>
-      </c>
-      <c r="F91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" t="s">
-        <v>281</v>
-      </c>
-      <c r="F92" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>75</v>
-      </c>
-      <c r="B93" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" t="s">
-        <v>282</v>
-      </c>
-      <c r="F93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D94" t="s">
-        <v>285</v>
-      </c>
-      <c r="F94" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>75</v>
-      </c>
-      <c r="B95" t="s">
-        <v>283</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" t="s">
-        <v>287</v>
-      </c>
-      <c r="F95" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" t="s">
-        <v>283</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" t="s">
-        <v>289</v>
-      </c>
-      <c r="F96" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>75</v>
-      </c>
-      <c r="B97" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" t="s">
-        <v>291</v>
-      </c>
-      <c r="F97" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>75</v>
-      </c>
-      <c r="B98" t="s">
-        <v>292</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F98" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>75</v>
-      </c>
-      <c r="B99" t="s">
-        <v>292</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D99" t="s">
-        <v>271</v>
-      </c>
-      <c r="F99" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" t="s">
-        <v>267</v>
-      </c>
-      <c r="F100" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" t="s">
-        <v>292</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D101" t="s">
-        <v>269</v>
-      </c>
-      <c r="F101" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+      <c r="F108" t="s">
+        <v>284</v>
+      </c>
+      <c r="G108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
         <v>151</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D109" t="s">
         <v>152</v>
       </c>
-      <c r="F102" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="F109" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
         <v>153</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D110" t="s">
         <v>154</v>
       </c>
-      <c r="F103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="F110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
         <v>155</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D111" t="s">
         <v>156</v>
       </c>
-      <c r="F104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="F111" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
         <v>157</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D112" t="s">
         <v>158</v>
       </c>
-      <c r="F105" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>159</v>
-      </c>
-      <c r="D106" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
-        <v>161</v>
-      </c>
-      <c r="D107" t="s">
-        <v>162</v>
-      </c>
-      <c r="F107" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="4">
-        <v>33</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F108" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="4">
-        <v>34</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F109" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="4">
-        <v>35</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F110" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="4">
-        <v>36</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F111" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" s="4">
-        <v>37</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="F112" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" s="4">
-        <v>38</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>170</v>
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" t="s">
+        <v>160</v>
       </c>
       <c r="F113" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="4">
-        <v>39</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>170</v>
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" t="s">
+        <v>162</v>
       </c>
       <c r="F114" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
         <v>107</v>
       </c>
       <c r="C115" s="4">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="F115" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
         <v>107</v>
       </c>
       <c r="C116" s="4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F116" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
         <v>107</v>
       </c>
       <c r="C117" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F117" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
         <v>107</v>
       </c>
       <c r="C118" s="4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F118" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
         <v>107</v>
       </c>
       <c r="C119" s="4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F119" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
       </c>
       <c r="C120" s="4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F120" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
         <v>107</v>
       </c>
       <c r="C121" s="4">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F121" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
         <v>107</v>
       </c>
       <c r="C122" s="4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
         <v>107</v>
       </c>
       <c r="C123" s="4">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F123" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
         <v>107</v>
       </c>
       <c r="C124" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F124" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
         <v>107</v>
       </c>
       <c r="C125" s="4">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F125" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B126" t="s">
         <v>107</v>
       </c>
       <c r="C126" s="4">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F126" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
         <v>107</v>
       </c>
       <c r="C127" s="4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F127" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
         <v>107</v>
       </c>
       <c r="C128" s="4">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
         <v>107</v>
       </c>
       <c r="C129" s="4">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F129" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
         <v>107</v>
       </c>
       <c r="C130" s="4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F130" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B131" t="s">
         <v>107</v>
       </c>
       <c r="C131" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F131" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
         <v>107</v>
       </c>
       <c r="C132" s="4">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F132" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
         <v>107</v>
       </c>
       <c r="C133" s="4">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F133" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s">
         <v>107</v>
       </c>
       <c r="C134" s="4">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F134" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
         <v>107</v>
       </c>
       <c r="C135" s="4">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F135" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
         <v>107</v>
       </c>
       <c r="C136" s="4">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F136" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B137" t="s">
         <v>107</v>
       </c>
       <c r="C137" s="4">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F137" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="C138" s="4">
+        <v>57</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F138" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>206</v>
+        <v>107</v>
+      </c>
+      <c r="C139" s="4">
+        <v>58</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F139" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>109</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>208</v>
+        <v>107</v>
+      </c>
+      <c r="C140" s="4">
+        <v>59</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>210</v>
+        <v>107</v>
+      </c>
+      <c r="C141" s="4">
+        <v>60</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>212</v>
+        <v>107</v>
+      </c>
+      <c r="C142" s="4">
+        <v>61</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B143" t="s">
-        <v>109</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>214</v>
+        <v>107</v>
+      </c>
+      <c r="C143" s="4">
+        <v>62</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>216</v>
+        <v>107</v>
+      </c>
+      <c r="C144" s="4">
+        <v>63</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B145" t="s">
         <v>109</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D145" t="s">
-        <v>294</v>
+        <v>204</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B146" t="s">
         <v>109</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B147" t="s">
         <v>109</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B148" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B149" t="s">
         <v>109</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D149" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B150" t="s">
         <v>109</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B151" t="s">
         <v>109</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" t="s">
-        <v>231</v>
+        <v>217</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B152" t="s">
         <v>109</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
+      </c>
+      <c r="D152" t="s">
+        <v>307</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B153" t="s">
         <v>109</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D153" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B154" t="s">
         <v>109</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B155" t="s">
         <v>109</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D155" t="s">
-        <v>239</v>
+        <v>226</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B156" t="s">
         <v>109</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
+      </c>
+      <c r="D156" t="s">
+        <v>229</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F156" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B157" t="s">
         <v>109</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D157" t="s">
-        <v>243</v>
+        <v>230</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F157" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B158" t="s">
         <v>109</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D158" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F158" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B159" t="s">
         <v>109</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D159" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F159" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B160" t="s">
         <v>109</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F160" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B161" t="s">
         <v>109</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D161" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F161" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B162" t="s">
         <v>109</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D162" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F162" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B163" t="s">
         <v>109</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D163" t="s">
-        <v>295</v>
+        <v>242</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F163" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B164" t="s">
         <v>109</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D164" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F164" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B165" t="s">
         <v>109</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D165" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F165" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B166" t="s">
         <v>109</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F166" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B167" t="s">
         <v>109</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D167" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F167" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B168" t="s">
-        <v>118</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>296</v>
+        <v>109</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="D168" t="s">
-        <v>297</v>
+        <v>253</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B169" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" t="s">
-        <v>166</v>
+        <v>109</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="D169" t="s">
-        <v>298</v>
+        <v>255</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>120</v>
-      </c>
-      <c r="C170" t="s">
-        <v>170</v>
+        <v>109</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="D170" t="s">
-        <v>299</v>
+        <v>308</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B171" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" t="s">
-        <v>219</v>
+        <v>109</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="D171" t="s">
-        <v>300</v>
+        <v>259</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B172" t="s">
-        <v>120</v>
-      </c>
-      <c r="C172" t="s">
-        <v>182</v>
+        <v>109</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D172" t="s">
-        <v>182</v>
+        <v>261</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>120</v>
-      </c>
-      <c r="C173" t="s">
-        <v>185</v>
+        <v>109</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D173" t="s">
-        <v>301</v>
+        <v>263</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B174" t="s">
-        <v>120</v>
-      </c>
-      <c r="C174" t="s">
-        <v>194</v>
+        <v>109</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="D174" t="s">
-        <v>302</v>
+        <v>265</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B175" t="s">
-        <v>120</v>
-      </c>
-      <c r="C175" t="s">
-        <v>197</v>
+        <v>118</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D175" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F175" t="s">
         <v>14</v>
@@ -6159,16 +6375,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
         <v>120</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D176" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -6176,16 +6392,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B177" t="s">
         <v>120</v>
       </c>
       <c r="C177" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D177" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
@@ -6193,16 +6409,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B178" t="s">
-        <v>107</v>
-      </c>
-      <c r="C178">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="C178" t="s">
+        <v>221</v>
       </c>
       <c r="D178" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
@@ -6210,16 +6426,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
-      </c>
-      <c r="C179">
-        <v>14</v>
+        <v>120</v>
+      </c>
+      <c r="C179" t="s">
+        <v>183</v>
       </c>
       <c r="D179" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
@@ -6227,16 +6443,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="C180" t="s">
+        <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
@@ -6244,16 +6460,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B181" t="s">
-        <v>107</v>
-      </c>
-      <c r="C181">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C181" t="s">
+        <v>195</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
@@ -6261,16 +6477,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B182" t="s">
-        <v>107</v>
-      </c>
-      <c r="C182">
-        <v>20</v>
+        <v>120</v>
+      </c>
+      <c r="C182" t="s">
+        <v>198</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
@@ -6278,16 +6494,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
-        <v>107</v>
-      </c>
-      <c r="C183">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="C183" t="s">
+        <v>200</v>
       </c>
       <c r="D183" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
@@ -6295,16 +6511,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>107</v>
-      </c>
-      <c r="C184">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="C184" t="s">
+        <v>203</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
@@ -6318,10 +6534,10 @@
         <v>107</v>
       </c>
       <c r="C185">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
@@ -6335,10 +6551,10 @@
         <v>107</v>
       </c>
       <c r="C186">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
@@ -6352,10 +6568,10 @@
         <v>107</v>
       </c>
       <c r="C187">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
@@ -6369,10 +6585,10 @@
         <v>107</v>
       </c>
       <c r="C188">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -6386,10 +6602,10 @@
         <v>107</v>
       </c>
       <c r="C189">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -6403,10 +6619,10 @@
         <v>107</v>
       </c>
       <c r="C190">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D190" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
@@ -6420,10 +6636,10 @@
         <v>107</v>
       </c>
       <c r="C191">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
@@ -6437,10 +6653,10 @@
         <v>107</v>
       </c>
       <c r="C192">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
@@ -6454,10 +6670,10 @@
         <v>107</v>
       </c>
       <c r="C193">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D193" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
@@ -6471,10 +6687,10 @@
         <v>107</v>
       </c>
       <c r="C194">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D194" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
@@ -6488,10 +6704,10 @@
         <v>107</v>
       </c>
       <c r="C195">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D195" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
@@ -6505,10 +6721,10 @@
         <v>107</v>
       </c>
       <c r="C196">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D196" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
@@ -6522,10 +6738,10 @@
         <v>107</v>
       </c>
       <c r="C197">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D197" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
@@ -6539,10 +6755,10 @@
         <v>107</v>
       </c>
       <c r="C198">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D198" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F198" t="s">
         <v>14</v>
@@ -6556,10 +6772,10 @@
         <v>107</v>
       </c>
       <c r="C199">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
@@ -6573,10 +6789,10 @@
         <v>107</v>
       </c>
       <c r="C200">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
@@ -6590,10 +6806,10 @@
         <v>107</v>
       </c>
       <c r="C201">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D201" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
@@ -6607,10 +6823,10 @@
         <v>107</v>
       </c>
       <c r="C202">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D202" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
@@ -6624,10 +6840,10 @@
         <v>107</v>
       </c>
       <c r="C203">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D203" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
@@ -6641,10 +6857,10 @@
         <v>107</v>
       </c>
       <c r="C204">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
@@ -6658,10 +6874,10 @@
         <v>107</v>
       </c>
       <c r="C205">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D205" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
@@ -6675,10 +6891,10 @@
         <v>107</v>
       </c>
       <c r="C206">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
@@ -6692,10 +6908,10 @@
         <v>107</v>
       </c>
       <c r="C207">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D207" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
@@ -6709,10 +6925,10 @@
         <v>107</v>
       </c>
       <c r="C208">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D208" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
@@ -6726,10 +6942,10 @@
         <v>107</v>
       </c>
       <c r="C209">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D209" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
@@ -6743,10 +6959,10 @@
         <v>107</v>
       </c>
       <c r="C210">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D210" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
@@ -6760,10 +6976,10 @@
         <v>107</v>
       </c>
       <c r="C211">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D211" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
@@ -6777,10 +6993,10 @@
         <v>107</v>
       </c>
       <c r="C212">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D212" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
@@ -6794,10 +7010,10 @@
         <v>107</v>
       </c>
       <c r="C213">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D213" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
@@ -6811,10 +7027,10 @@
         <v>107</v>
       </c>
       <c r="C214">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D214" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
@@ -6825,13 +7041,13 @@
         <v>129</v>
       </c>
       <c r="B215" t="s">
-        <v>43</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>264</v>
+        <v>107</v>
+      </c>
+      <c r="C215">
+        <v>57</v>
       </c>
       <c r="D215" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
@@ -6842,13 +7058,13 @@
         <v>129</v>
       </c>
       <c r="B216" t="s">
-        <v>43</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>266</v>
+        <v>107</v>
+      </c>
+      <c r="C216">
+        <v>58</v>
       </c>
       <c r="D216" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
@@ -6859,13 +7075,13 @@
         <v>129</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>268</v>
+        <v>107</v>
+      </c>
+      <c r="C217">
+        <v>59</v>
       </c>
       <c r="D217" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -6876,13 +7092,13 @@
         <v>129</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>307</v>
+        <v>107</v>
+      </c>
+      <c r="C218">
+        <v>60</v>
       </c>
       <c r="D218" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="F218" t="s">
         <v>14</v>
@@ -6893,13 +7109,13 @@
         <v>129</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>270</v>
+        <v>107</v>
+      </c>
+      <c r="C219">
+        <v>61</v>
       </c>
       <c r="D219" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
@@ -6907,47 +7123,168 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="B220" t="s">
-        <v>310</v>
-      </c>
-      <c r="C220" t="s">
-        <v>311</v>
+        <v>107</v>
+      </c>
+      <c r="C220">
+        <v>62</v>
       </c>
       <c r="D220" t="s">
-        <v>312</v>
+        <v>262</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="B221" t="s">
-        <v>310</v>
-      </c>
-      <c r="C221" t="s">
-        <v>313</v>
+        <v>107</v>
+      </c>
+      <c r="C221">
+        <v>63</v>
       </c>
       <c r="D221" t="s">
-        <v>314</v>
+        <v>264</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
-      </c>
-      <c r="C222" t="s">
-        <v>315</v>
+        <v>44</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D222" t="s">
-        <v>316</v>
-      </c>
-    </row>
+        <v>267</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>129</v>
+      </c>
+      <c r="B223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D223" t="s">
+        <v>270</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>129</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D224" t="s">
+        <v>319</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>129</v>
+      </c>
+      <c r="B225" t="s">
+        <v>44</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D225" t="s">
+        <v>321</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>129</v>
+      </c>
+      <c r="B226" t="s">
+        <v>44</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D226" t="s">
+        <v>274</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>322</v>
+      </c>
+      <c r="B227" t="s">
+        <v>323</v>
+      </c>
+      <c r="C227" t="s">
+        <v>324</v>
+      </c>
+      <c r="D227" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>322</v>
+      </c>
+      <c r="B228" t="s">
+        <v>323</v>
+      </c>
+      <c r="C228" t="s">
+        <v>326</v>
+      </c>
+      <c r="D228" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>322</v>
+      </c>
+      <c r="B229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C229" t="s">
+        <v>328</v>
+      </c>
+      <c r="D229" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15"/>
   </sheetData>
+  <autoFilter ref="A1:G229" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6964,41 +7301,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/MetadataDictionary_v1.xlsx
+++ b/Tables/MetadataDictionary_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp.sharepoint.com/sites/PNAMPTeam/Shared Documents/General/Projects/Habitat Data Sharing/Habitat Metrics Integration_INTERNAL/Data Release Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B87001-2552-4EAF-B254-9C35A2A1BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3DA7B-769F-4A4B-91D2-996A7F0C3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" firstSheet="1" activeTab="1" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="MetadataDict" sheetId="2" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,24 +2014,24 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M71" sqref="M71:M72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
-    <col min="4" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="12" width="10.1796875" style="1" customWidth="1"/>
     <col min="13" max="13" width="27" style="10" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72.599999999999994" hidden="1">
+    <row r="2" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="43.5" hidden="1">
+    <row r="3" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29.1" hidden="1">
+    <row r="4" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="72.95" hidden="1" customHeight="1">
+    <row r="5" spans="1:17" ht="73" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.5" hidden="1">
+    <row r="6" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="29.1" hidden="1">
+    <row r="7" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5" hidden="1">
+    <row r="8" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="101.45" hidden="1">
+    <row r="9" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" hidden="1">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="43.5" hidden="1">
+    <row r="11" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="45" hidden="1">
+    <row r="12" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" hidden="1">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" hidden="1">
+    <row r="14" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="44.45" hidden="1" customHeight="1">
+    <row r="15" spans="1:17" ht="44.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="130.5" hidden="1">
+    <row r="16" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" hidden="1">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="57.95">
+    <row r="19" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="29.1">
+    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="29.1">
+    <row r="21" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="44.45" customHeight="1">
+    <row r="22" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="29.1">
+    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1">
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -2708,9 +2708,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>101</v>
@@ -2740,7 +2740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="29.1">
+    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="87" hidden="1">
+    <row r="28" spans="1:15" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="M28" s="3"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="43.5" hidden="1">
+    <row r="29" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="29.1" hidden="1">
+    <row r="30" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="43.5" hidden="1">
+    <row r="31" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" ht="29.1" hidden="1">
+    <row r="32" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="87" hidden="1">
+    <row r="33" spans="1:15" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" ht="43.5" hidden="1">
+    <row r="34" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="29.1" hidden="1">
+    <row r="35" spans="1:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="43.5" hidden="1">
+    <row r="36" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" ht="57.95" hidden="1">
+    <row r="37" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" ht="57.95" hidden="1">
+    <row r="38" spans="1:15" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="43.5" hidden="1">
+    <row r="39" spans="1:15" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="72.599999999999994" hidden="1">
+    <row r="40" spans="1:15" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" hidden="1">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" hidden="1">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" hidden="1">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" hidden="1">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" hidden="1">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" hidden="1">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" hidden="1">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" hidden="1">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="O48"/>
     </row>
-    <row r="49" spans="1:15" hidden="1">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="O49"/>
     </row>
-    <row r="50" spans="1:15" hidden="1">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" ht="116.1" hidden="1">
+    <row r="51" spans="1:15" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" hidden="1">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" hidden="1">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" hidden="1">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="O54"/>
     </row>
-    <row r="55" spans="1:15" hidden="1">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" ht="33" hidden="1" customHeight="1">
+    <row r="58" spans="1:15" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -3522,22 +3522,22 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="66.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>147</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>147</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>147</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>147</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>170</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>170</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>170</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>170</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>170</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>170</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>170</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>170</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>170</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>170</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>170</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>170</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>170</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>170</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>170</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>170</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>170</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>170</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>170</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>170</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>170</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>170</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>170</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>170</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>50</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>61</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>61</v>
       </c>
@@ -7958,7 +7958,7 @@
   <autoFilter ref="A1:G214" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Event"/>
+        <filter val="Location"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7975,24 +7975,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>412</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>414</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>416</v>
       </c>
@@ -8022,26 +8022,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8279,14 +8259,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tables/MetadataDictionary_v1.xlsx
+++ b/Tables/MetadataDictionary_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3DA7B-769F-4A4B-91D2-996A7F0C3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19748698-CAE3-4E42-9624-50518B1FB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
@@ -2016,7 +2016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8022,6 +8022,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8259,27 +8279,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8297,23 +8316,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tables/MetadataDictionary_v1.xlsx
+++ b/Tables/MetadataDictionary_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19748698-CAE3-4E42-9624-50518B1FB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA13C122-92C1-494A-891B-5E8665D4502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{612D857E-CB7D-4F80-AB73-368B543E7FF3}"/>
   </bookViews>
@@ -2016,7 +2016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3519,7 +3519,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -3560,7 +3559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3710,7 +3709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>107</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>107</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -5586,7 +5585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>147</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>147</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>147</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>147</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>147</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -6540,7 +6539,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>147</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>147</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>147</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>147</v>
       </c>
@@ -6972,7 +6971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>147</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>147</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>147</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>147</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>147</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>170</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>170</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>170</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>170</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>170</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>170</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>170</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>170</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>170</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>170</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>170</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>170</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>170</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>170</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>170</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>170</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>170</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>170</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>170</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>170</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>170</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>170</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>170</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>170</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>170</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>170</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>170</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>170</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>170</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>170</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>170</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>50</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>61</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>61</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>61</v>
       </c>
@@ -7955,13 +7954,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G214" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Location"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G214" xr:uid="{063D4566-F61A-451E-B178-010037E4B35B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8022,26 +8015,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006688A6CBE26CBF41BFE362BEC34502BA" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916ec95d980b70225c2beeb175eb34ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xmlns:ns3="3618cbaa-901d-4c6b-9f1a-f53e3aa15701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1086361ad164fb1fc8fad31a5b69396c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8279,26 +8252,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <DateandTime xmlns="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783B9ED7-A86D-4C20-8581-4B66EC9EBDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8316,4 +8290,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F29970C-55C3-4834-9A3F-8E46C108106D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B41B24-566D-47DB-B2A1-8A240BF055D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>